--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinima\Desktop\NewTAFUpdated\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinima\Desktop\Assignment_Parabank\NewTAF_Com.Mutibrowser\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,7 +179,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinoramkumar</t>
+    <t>vinotamizhini</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
